--- a/docs/ValueSet-ServiceRequestPAVS-Sport.xlsx
+++ b/docs/ValueSet-ServiceRequestPAVS-Sport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/ValueSet-ServiceRequestPAVS-Sport.xlsx
+++ b/docs/ValueSet-ServiceRequestPAVS-Sport.xlsx
@@ -147,7 +147,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct/901000000000207008/version/20240901</t>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>

--- a/docs/ValueSet-ServiceRequestPAVS-Sport.xlsx
+++ b/docs/ValueSet-ServiceRequestPAVS-Sport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -112,12 +112,6 @@
   </si>
   <si>
     <t>PA assessment</t>
-  </si>
-  <si>
-    <t>435551000124105</t>
-  </si>
-  <si>
-    <t>Counseling about physical activity</t>
   </si>
   <si>
     <t>390893007</t>
@@ -414,7 +408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,26 +476,18 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
